--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F8-Asgr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F8-Asgr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Asgr2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H2">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I2">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J2">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6070812526391069</v>
+        <v>0.8482770000000001</v>
       </c>
       <c r="N2">
-        <v>0.6070812526391069</v>
+        <v>2.544831</v>
       </c>
       <c r="O2">
-        <v>0.4324939080959203</v>
+        <v>0.499578618185673</v>
       </c>
       <c r="P2">
-        <v>0.4324939080959203</v>
+        <v>0.4995786181856731</v>
       </c>
       <c r="Q2">
-        <v>0.3522802144216082</v>
+        <v>1.879240631274</v>
       </c>
       <c r="R2">
-        <v>0.3522802144216082</v>
+        <v>16.913165681466</v>
       </c>
       <c r="S2">
-        <v>0.1676666569356208</v>
+        <v>0.3337050516263463</v>
       </c>
       <c r="T2">
-        <v>0.1676666569356208</v>
+        <v>0.3337050516263463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H3">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I3">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J3">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.796594594060833</v>
+        <v>0.849708</v>
       </c>
       <c r="N3">
-        <v>0.796594594060833</v>
+        <v>2.549124</v>
       </c>
       <c r="O3">
-        <v>0.5675060919040797</v>
+        <v>0.5004213818143269</v>
       </c>
       <c r="P3">
-        <v>0.5675060919040797</v>
+        <v>0.5004213818143269</v>
       </c>
       <c r="Q3">
-        <v>0.4622519855174439</v>
+        <v>1.882410814296</v>
       </c>
       <c r="R3">
-        <v>0.4622519855174439</v>
+        <v>16.941697328664</v>
       </c>
       <c r="S3">
-        <v>0.2200073745294305</v>
+        <v>0.3342679950149768</v>
       </c>
       <c r="T3">
-        <v>0.2200073745294305</v>
+        <v>0.3342679950149767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H4">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I4">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J4">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6070812526391069</v>
+        <v>0.8482770000000001</v>
       </c>
       <c r="N4">
-        <v>0.6070812526391069</v>
+        <v>2.544831</v>
       </c>
       <c r="O4">
-        <v>0.4324939080959203</v>
+        <v>0.499578618185673</v>
       </c>
       <c r="P4">
-        <v>0.4324939080959203</v>
+        <v>0.4995786181856731</v>
       </c>
       <c r="Q4">
-        <v>0.2037380894045564</v>
+        <v>0.285827783427</v>
       </c>
       <c r="R4">
-        <v>0.2037380894045564</v>
+        <v>2.572450050843</v>
       </c>
       <c r="S4">
-        <v>0.09696850104681123</v>
+        <v>0.05075570080670744</v>
       </c>
       <c r="T4">
-        <v>0.09696850104681123</v>
+        <v>0.05075570080670743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H5">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I5">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J5">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.796594594060833</v>
+        <v>0.849708</v>
       </c>
       <c r="N5">
-        <v>0.796594594060833</v>
+        <v>2.549124</v>
       </c>
       <c r="O5">
-        <v>0.5675060919040797</v>
+        <v>0.5004213818143269</v>
       </c>
       <c r="P5">
-        <v>0.5675060919040797</v>
+        <v>0.5004213818143269</v>
       </c>
       <c r="Q5">
-        <v>0.2673392728212499</v>
+        <v>0.286309960308</v>
       </c>
       <c r="R5">
-        <v>0.2673392728212499</v>
+        <v>2.576789642772</v>
       </c>
       <c r="S5">
-        <v>0.1272392836910611</v>
+        <v>0.05084132308322136</v>
       </c>
       <c r="T5">
-        <v>0.1272392836910611</v>
+        <v>0.05084132308322135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H6">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I6">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J6">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6070812526391069</v>
+        <v>0.8482770000000001</v>
       </c>
       <c r="N6">
-        <v>0.6070812526391069</v>
+        <v>2.544831</v>
       </c>
       <c r="O6">
-        <v>0.4324939080959203</v>
+        <v>0.499578618185673</v>
       </c>
       <c r="P6">
-        <v>0.4324939080959203</v>
+        <v>0.4995786181856731</v>
       </c>
       <c r="Q6">
-        <v>0.06728481743491091</v>
+        <v>0.063828602865</v>
       </c>
       <c r="R6">
-        <v>0.06728481743491091</v>
+        <v>0.574457425785</v>
       </c>
       <c r="S6">
-        <v>0.03202399663676117</v>
+        <v>0.01133432667420694</v>
       </c>
       <c r="T6">
-        <v>0.03202399663676117</v>
+        <v>0.01133432667420693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H7">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I7">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J7">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.796594594060833</v>
+        <v>0.849708</v>
       </c>
       <c r="N7">
-        <v>0.796594594060833</v>
+        <v>2.549124</v>
       </c>
       <c r="O7">
-        <v>0.5675060919040797</v>
+        <v>0.5004213818143269</v>
       </c>
       <c r="P7">
-        <v>0.5675060919040797</v>
+        <v>0.5004213818143269</v>
       </c>
       <c r="Q7">
-        <v>0.08828920609558515</v>
+        <v>0.06393627846</v>
       </c>
       <c r="R7">
-        <v>0.08828920609558515</v>
+        <v>0.57542650614</v>
       </c>
       <c r="S7">
-        <v>0.04202096917038439</v>
+        <v>0.01135344710476298</v>
       </c>
       <c r="T7">
-        <v>0.04202096917038439</v>
+        <v>0.01135344710476298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H8">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I8">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J8">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6070812526391069</v>
+        <v>0.8482770000000001</v>
       </c>
       <c r="N8">
-        <v>0.6070812526391069</v>
+        <v>2.544831</v>
       </c>
       <c r="O8">
-        <v>0.4324939080959203</v>
+        <v>0.499578618185673</v>
       </c>
       <c r="P8">
-        <v>0.4324939080959203</v>
+        <v>0.4995786181856731</v>
       </c>
       <c r="Q8">
-        <v>0.2853989991525953</v>
+        <v>0.03592170336</v>
       </c>
       <c r="R8">
-        <v>0.2853989991525953</v>
+        <v>0.32329533024</v>
       </c>
       <c r="S8">
-        <v>0.1358347534767272</v>
+        <v>0.006378775381271178</v>
       </c>
       <c r="T8">
-        <v>0.1358347534767272</v>
+        <v>0.006378775381271176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,309 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04234666666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.12704</v>
+      </c>
+      <c r="I9">
+        <v>0.01276831143101574</v>
+      </c>
+      <c r="J9">
+        <v>0.01276831143101574</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.849708</v>
+      </c>
+      <c r="N9">
+        <v>2.549124</v>
+      </c>
+      <c r="O9">
+        <v>0.5004213818143269</v>
+      </c>
+      <c r="P9">
+        <v>0.5004213818143269</v>
+      </c>
+      <c r="Q9">
+        <v>0.03598230144</v>
+      </c>
+      <c r="R9">
+        <v>0.3238407129599999</v>
+      </c>
+      <c r="S9">
+        <v>0.006389536049744564</v>
+      </c>
+      <c r="T9">
+        <v>0.006389536049744562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.140989</v>
+      </c>
+      <c r="H10">
+        <v>0.422967</v>
+      </c>
+      <c r="I10">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J10">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8482770000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.544831</v>
+      </c>
+      <c r="O10">
+        <v>0.499578618185673</v>
+      </c>
+      <c r="P10">
+        <v>0.4995786181856731</v>
+      </c>
+      <c r="Q10">
+        <v>0.119597725953</v>
+      </c>
+      <c r="R10">
+        <v>1.076379533577</v>
+      </c>
+      <c r="S10">
+        <v>0.02123749595946258</v>
+      </c>
+      <c r="T10">
+        <v>0.02123749595946258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.140989</v>
+      </c>
+      <c r="H11">
+        <v>0.422967</v>
+      </c>
+      <c r="I11">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J11">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.849708</v>
+      </c>
+      <c r="N11">
+        <v>2.549124</v>
+      </c>
+      <c r="O11">
+        <v>0.5004213818143269</v>
+      </c>
+      <c r="P11">
+        <v>0.5004213818143269</v>
+      </c>
+      <c r="Q11">
+        <v>0.119799481212</v>
+      </c>
+      <c r="R11">
+        <v>1.078195330908</v>
+      </c>
+      <c r="S11">
+        <v>0.02127332253111074</v>
+      </c>
+      <c r="T11">
+        <v>0.02127332253111074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.470116640749335</v>
-      </c>
-      <c r="H9">
-        <v>0.470116640749335</v>
-      </c>
-      <c r="I9">
-        <v>0.314073217989931</v>
-      </c>
-      <c r="J9">
-        <v>0.314073217989931</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.796594594060833</v>
-      </c>
-      <c r="N9">
-        <v>0.796594594060833</v>
-      </c>
-      <c r="O9">
-        <v>0.5675060919040797</v>
-      </c>
-      <c r="P9">
-        <v>0.5675060919040797</v>
-      </c>
-      <c r="Q9">
-        <v>0.374492374598959</v>
-      </c>
-      <c r="R9">
-        <v>0.374492374598959</v>
-      </c>
-      <c r="S9">
-        <v>0.1782384645132039</v>
-      </c>
-      <c r="T9">
-        <v>0.1782384645132039</v>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.516951</v>
+      </c>
+      <c r="I12">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J12">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8482770000000001</v>
+      </c>
+      <c r="N12">
+        <v>2.544831</v>
+      </c>
+      <c r="O12">
+        <v>0.499578618185673</v>
+      </c>
+      <c r="P12">
+        <v>0.4995786181856731</v>
+      </c>
+      <c r="Q12">
+        <v>0.428931547809</v>
+      </c>
+      <c r="R12">
+        <v>3.860383930281</v>
+      </c>
+      <c r="S12">
+        <v>0.07616726773767864</v>
+      </c>
+      <c r="T12">
+        <v>0.07616726773767861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.516951</v>
+      </c>
+      <c r="I13">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J13">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.849708</v>
+      </c>
+      <c r="N13">
+        <v>2.549124</v>
+      </c>
+      <c r="O13">
+        <v>0.5004213818143269</v>
+      </c>
+      <c r="P13">
+        <v>0.5004213818143269</v>
+      </c>
+      <c r="Q13">
+        <v>0.429655133436</v>
+      </c>
+      <c r="R13">
+        <v>3.866896200924</v>
+      </c>
+      <c r="S13">
+        <v>0.0762957580305106</v>
+      </c>
+      <c r="T13">
+        <v>0.07629575803051057</v>
       </c>
     </row>
   </sheetData>
